--- a/docs_pre/sync_fifo_verification_test_plan.xlsx
+++ b/docs_pre/sync_fifo_verification_test_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\04_Projects\01_GitHub\01_fifo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\04_Projects\01_GitHub\01_fifo\docs_pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC06568-9184-485C-9D50-C25D5F0B9143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEF993E-1EAE-40E1-946C-C839B6E93D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{954AE6CF-E67F-46CD-92E2-8C984CD8E5BE}"/>
+    <workbookView xWindow="3780" yWindow="1548" windowWidth="17280" windowHeight="9420" xr2:uid="{954AE6CF-E67F-46CD-92E2-8C984CD8E5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Plan" sheetId="1" r:id="rId1"/>
@@ -681,15 +681,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991C0294-F058-498D-AE6F-899811BBB501}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="97" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.69921875" bestFit="1" customWidth="1"/>
